--- a/examples/02_annuities_in_payment/portfolio/portfolio_annuity_small2.xlsx
+++ b/examples/02_annuities_in_payment/portfolio/portfolio_annuity_small2.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Oracle\PyProtolinc\examples\02_annuities_in_payment\portfolio\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF9D044-0A28-460B-B1F9-D3159DA6C5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -84,8 +78,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,7 +113,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -135,9 +129,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -175,9 +169,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,27 +203,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,27 +237,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -454,27 +412,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -512,7 +470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>44196</v>
       </c>
@@ -541,18 +499,18 @@
         <v>14</v>
       </c>
       <c r="K2">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="L2" s="1">
         <v>36891</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
